--- a/form-files/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
+++ b/form-files/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3540" windowWidth="14076" windowHeight="7884"/>
+    <workbookView xWindow="6360" yWindow="3540" windowWidth="33620" windowHeight="12400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>type</t>
   </si>
@@ -146,6 +151,9 @@
   </si>
   <si>
     <t>select_one</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
@@ -498,21 +506,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="1" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +537,11 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -552,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -566,6 +578,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -577,9 +594,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -590,7 +607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="22.25" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -601,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="22.25" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -612,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="22.25" customHeight="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -623,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="22.25" customHeight="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -634,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="22.25" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -647,6 +664,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -658,18 +680,18 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -692,7 +714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -700,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -708,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -731,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -739,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -749,6 +771,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -756,18 +783,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -778,7 +805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="16.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -786,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="16.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -794,7 +821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -802,7 +829,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -812,5 +839,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/form-files/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
+++ b/form-files/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3540" windowWidth="33620" windowHeight="12400" activeTab="3"/>
+    <workbookView xWindow="6360" yWindow="3540" windowWidth="25820" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>type</t>
   </si>
@@ -124,18 +124,6 @@
   </si>
   <si>
     <t>elementType</t>
-  </si>
-  <si>
-    <t>properties.latitude.type</t>
-  </si>
-  <si>
-    <t>properties.longitude.type</t>
-  </si>
-  <si>
-    <t>properties.altitude.type</t>
-  </si>
-  <si>
-    <t>properties.accuracy.type</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -508,25 +496,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="2" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12">
+    <row r="1" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -538,10 +526,10 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,9 +538,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -564,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -594,9 +582,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.25" customHeight="1">
+    <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -607,7 +595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.25" customHeight="1">
+    <row r="2" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -618,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.25" customHeight="1">
+    <row r="3" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -629,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.25" customHeight="1">
+    <row r="4" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -640,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.25" customHeight="1">
+    <row r="5" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -651,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.25" customHeight="1">
+    <row r="6" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -674,24 +662,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -701,20 +685,8 @@
       <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -722,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -730,7 +702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -740,20 +712,8 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -761,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -783,29 +743,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.75" customHeight="1">
+    <row r="1" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -813,7 +773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.75" customHeight="1">
+    <row r="3" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -821,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.75" customHeight="1">
+    <row r="4" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -829,9 +789,9 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.75" customHeight="1">
+    <row r="5" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>

--- a/form-files/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
+++ b/form-files/tables/refrigerators/forms/refrigerators_update/refrigerators_update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3540" windowWidth="25820" windowHeight="12400"/>
+    <workbookView xWindow="6360" yWindow="3540" windowWidth="25820" windowHeight="12400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>type</t>
   </si>
@@ -84,9 +84,6 @@
     <t>refrigerator_location</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>display.hint</t>
-  </si>
-  <si>
-    <t>elementType</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -496,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -514,19 +508,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -540,7 +534,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -586,13 +580,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,31 +656,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.453125" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -694,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -702,26 +692,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -756,34 +743,34 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>20130408</v>
@@ -791,10 +778,10 @@
     </row>
     <row r="5" spans="1:3" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
